--- a/src/test/java/dataExcel/datos.xlsx
+++ b/src/test/java/dataExcel/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\IdeaProjects\Reto pagina\src\test\java\dataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64E6814E-F2E3-42E0-8C54-87FB1406AD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FD7538-B39B-4E41-8A6B-83FCB6FAAA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8EFDABFC-5AA3-408D-AF1F-9D4DA2C90533}"/>
   </bookViews>
@@ -43,13 +43,13 @@
     <t>Tenis Superstar Star Wars</t>
   </si>
   <si>
-    <t>Morral Minnie</t>
-  </si>
-  <si>
-    <t>Camiseta Team Base</t>
-  </si>
-  <si>
     <t>Chaqueta Deportiva Beckenbauer Blue Versión</t>
+  </si>
+  <si>
+    <t>Chaqueta para Lluvia Millonarios FC</t>
+  </si>
+  <si>
+    <t>Camiseta Arsenal Teamgeist</t>
   </si>
 </sst>
 </file>
@@ -85,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +405,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A6"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,20 +427,21 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>